--- a/design_work/level/maze.xlsx
+++ b/design_work/level/maze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Evan_Toronto\OneDrive - University of Toronto\2018_2019\GDDC\projectX\design_work\level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{9777F4F9-35E2-4BD6-9843-19DBCCF36EDB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{6B6758B8-72AB-4D77-B7C7-781A9586B4D1}"/>
+  <xr:revisionPtr revIDLastSave="435" documentId="13_ncr:1_{9777F4F9-35E2-4BD6-9843-19DBCCF36EDB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{18DEB3D1-0465-4F83-A2B2-9D7B2A082EC3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{B7FDA2F1-D0C4-4224-9A04-2A3CFF9BC184}"/>
   </bookViews>
@@ -30,19 +30,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>in</t>
   </si>
   <si>
     <t>out</t>
   </si>
+  <si>
+    <t>Wall</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,8 +60,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +85,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -99,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -112,6 +153,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827DFF9E-E3F4-4156-A5D3-1BA3865E8772}">
-  <dimension ref="B1:AE51"/>
+  <dimension ref="B1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+      <selection activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -439,12 +498,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -476,154 +538,331 @@
     </row>
     <row r="3" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
       <c r="AE3" s="3"/>
     </row>
     <row r="4" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="7"/>
       <c r="AE4" s="3"/>
     </row>
     <row r="5" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="3"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="X5" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
       <c r="AE5" s="3"/>
     </row>
     <row r="6" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="S6" s="7"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
       <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="3"/>
+      <c r="Q7" s="7"/>
       <c r="R7" s="3"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
       <c r="W7" s="3"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
       <c r="AE7" s="3"/>
     </row>
     <row r="8" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="7"/>
       <c r="R8" s="3"/>
+      <c r="S8" s="7"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
     <row r="9" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
+      <c r="O9" s="7"/>
       <c r="P9" s="3"/>
+      <c r="Q9" s="7"/>
       <c r="R9" s="3"/>
+      <c r="S9" s="7"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
       <c r="W9" s="3"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
     </row>
     <row r="10" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="3"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="3"/>
+      <c r="O10" s="7"/>
       <c r="P10" s="3"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="3"/>
+      <c r="S10" s="7"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
     </row>
     <row r="11" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="3"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
       <c r="P11" s="3"/>
+      <c r="Q11" s="7"/>
       <c r="R11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
     <row r="12" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="3"/>
+      <c r="Q12" s="7"/>
       <c r="R12" s="3"/>
+      <c r="S12" s="7"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
     </row>
     <row r="13" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -631,26 +870,61 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="O13" s="7"/>
       <c r="P13" s="3"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="3"/>
+      <c r="S13" s="7"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
+      <c r="V13" s="7"/>
       <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
     </row>
     <row r="14" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="7"/>
       <c r="W14" s="3"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
     </row>
     <row r="15" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -658,98 +932,434 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="V15" s="7"/>
       <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
       <c r="AE15" s="3"/>
     </row>
     <row r="16" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
       <c r="W16" s="3"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
     <row r="17" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="O17" s="7"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="S17" s="7"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
       <c r="AE17" s="3"/>
     </row>
     <row r="18" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="7"/>
       <c r="AE18" s="3"/>
     </row>
     <row r="19" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="7"/>
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="7"/>
       <c r="AE20" s="3"/>
     </row>
     <row r="21" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
       <c r="AE21" s="3"/>
     </row>
     <row r="22" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="7"/>
+      <c r="AD22" s="7"/>
       <c r="AE22" s="3"/>
     </row>
     <row r="23" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AD23" s="7"/>
       <c r="AE23" s="3"/>
     </row>
     <row r="24" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="V24" s="9"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AD24" s="7"/>
       <c r="AE24" s="3"/>
     </row>
     <row r="25" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AD25" s="7"/>
       <c r="AE25" s="3"/>
     </row>
     <row r="26" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AD26" s="7"/>
       <c r="AE26" s="3"/>
     </row>
     <row r="27" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AD27" s="7"/>
       <c r="AE27" s="3"/>
     </row>
     <row r="28" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AD28" s="7"/>
       <c r="AE28" s="3"/>
     </row>
     <row r="29" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AD29" s="7"/>
       <c r="AE29" s="3"/>
     </row>
     <row r="30" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AD30" s="7"/>
       <c r="AE30" s="3"/>
     </row>
     <row r="31" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,9 +1394,6 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="51" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
